--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMM-T\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\bkp_Funcional_SurNexV5_21102025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CC1B1A-05AB-43AD-983A-6269C03F3206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97D0678-E4D5-4409-B2F5-87E63AD8924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,28 +112,28 @@
     <t>R2</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/Micro/PumpCmdStart</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Micro/PumpCmdStop</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Micro/PumpSts</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Micro/NivelTK</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Siemens/Partir</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Siemens/Parar</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Siemens/Sts</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Siemens/PV</t>
+    <t>scada/customers/zero_corp/Planta1/Partir</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Parar</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Sts</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/PV</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/Partir</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/Parar</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/Sts</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/PV</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -605,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9">
         <v>1000</v>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\bkp_Funcional_SurNexV5_21102025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97D0678-E4D5-4409-B2F5-87E63AD8924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EF12FC-9C25-48AD-BB05-CA2B1F12E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34155" yWindow="-3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>enabled</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta2/PV</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/PV</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta2/PV</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -709,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -718,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -735,16 +741,16 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -761,25 +767,77 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="J9">
+      <c r="J10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B9" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\bkp_Funcional_SurNexV5_21102025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EF12FC-9C25-48AD-BB05-CA2B1F12E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{802205D5-E22E-4E1E-A066-D0146A6628A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34155" yWindow="-3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\bkp_Funcional_SurNexV5_21102025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion\Repositorio\scada_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{802205D5-E22E-4E1E-A066-D0146A6628A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BDF9C-C960-4BE0-A900-5C21610736D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="-2295" windowWidth="26700" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="J5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -701,7 +701,7 @@
         <v>39</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion\Repositorio\scada_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\Repositorio\scada_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BDF9C-C960-4BE0-A900-5C21610736D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176F29A-1133-43B0-8C37-DCF283042436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="-2295" windowWidth="26700" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>enabled</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/trend/Planta2/PV</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta2/SPTime</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta2/SPV1</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J8" sqref="I7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,25 +715,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -735,25 +741,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,19 +773,19 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,19 +799,19 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,25 +825,77 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>1800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\Repositorio\scada_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176F29A-1133-43B0-8C37-DCF283042436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527ECB1-094F-4914-8A6C-2ACA060845CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>enabled</t>
   </si>
@@ -142,10 +142,19 @@
     <t>scada/customers/zero_corp/trend/Planta2/PV</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/trend/Planta2/SPTime</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/trend/Planta2/SPV1</t>
+    <t>scada/customers/zero_corp/Planta2/SPTime</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/SPV1</t>
+  </si>
+  <si>
+    <t>N7:2</t>
+  </si>
+  <si>
+    <t>N7:1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta2/SPTimefdbk</t>
   </si>
 </sst>
 </file>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="I7:J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -747,19 +756,19 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>2550</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,25 +776,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -799,7 +808,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -808,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -825,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -851,19 +860,19 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -886,16 +895,42 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\Repositorio\scada_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527ECB1-094F-4914-8A6C-2ACA060845CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6727A0-9303-427B-84A8-B7086416C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\Repositorio\scada_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6727A0-9303-427B-84A8-B7086416C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99A8AD-D491-4EF2-A22F-2AC8CDC2DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="-2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>enabled</t>
   </si>
@@ -112,18 +112,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/Planta1/Partir</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta1/Parar</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta1/Sts</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta1/PV</t>
-  </si>
-  <si>
     <t>scada/customers/zero_corp/Planta2/Partir</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>scada/customers/zero_corp/Planta2/PV</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/trend/Planta1/PV</t>
-  </si>
-  <si>
     <t>scada/customers/zero_corp/trend/Planta2/PV</t>
   </si>
   <si>
@@ -155,6 +140,54 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta2/SPTimefdbk</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/Temp</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R0.BIT2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/PartirAB1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/PararAB1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/LocRemAB1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/RuningAB1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/Set_Max_Temp</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Set_Min_Temp</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Set_Min_Temp_fdbk</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/Temp_fdbk</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/Set_Max_Temp_fdbk</t>
   </si>
 </sst>
 </file>
@@ -531,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -626,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -655,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>2500</v>
@@ -684,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <v>5000</v>
@@ -713,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>5000</v>
@@ -730,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -739,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>2500</v>
@@ -756,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -765,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>2500</v>
@@ -782,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -791,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9">
-        <v>2550</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -817,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -843,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>1000</v>
@@ -860,19 +893,19 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J12">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -886,19 +919,19 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -912,25 +945,155 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>1800</v>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B19" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99A8AD-D491-4EF2-A22F-2AC8CDC2DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F376527B-F8A0-4DFF-84CC-152ECB183DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>scada/customers/zero_corp/Planta2/SPTimefdbk</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/trend/Planta1/Temp</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>scada/customers/zero_corp/Planta1/RuningAB1</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/trend/Planta1/Set_Max_Temp</t>
-  </si>
-  <si>
     <t>scada/customers/zero_corp/Planta1/Set_Min_Temp</t>
   </si>
   <si>
@@ -184,10 +178,16 @@
     <t>scada/customers/zero_corp/Planta1/Set_Min_Temp_fdbk</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/trend/Planta1/Temp_fdbk</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/trend/Planta1/Set_Max_Temp_fdbk</t>
+    <t>scada/customers/zero_corp/Planta1/Temp_fdbk</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Set_Max_Temp_fdbk</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Temp</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Set_Max_Temp</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>1000</v>
@@ -893,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>1000</v>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>2500</v>
@@ -945,7 +945,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>1000</v>
@@ -971,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -980,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>1000</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1032,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>2000</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1058,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>2050</v>
@@ -1075,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -1084,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>1790</v>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F376527B-F8A0-4DFF-84CC-152ECB183DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD400F12-4A93-41D9-AC81-7DA6833C9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>enabled</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta1/Set_Max_Temp</t>
+  </si>
+  <si>
+    <t>R0.BIT3</t>
+  </si>
+  <si>
+    <t>R0.BIT4</t>
+  </si>
+  <si>
+    <t>R0.BIT5</t>
+  </si>
+  <si>
+    <t>R1.BIT1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/PartirAB2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/PararAB2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/LocRemAB2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/RuningAB2</t>
   </si>
 </sst>
 </file>
@@ -564,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,12 +1112,116 @@
       </c>
       <c r="J19">
         <v>1790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B19" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD400F12-4A93-41D9-AC81-7DA6833C9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCAC58A-607F-407D-B127-9518C2DB114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
   <si>
     <t>enabled</t>
   </si>
@@ -106,9 +106,6 @@
     <t>R0.BIT1</t>
   </si>
   <si>
-    <t>R1.BIT0</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>R0.BIT5</t>
   </si>
   <si>
-    <t>R1.BIT1</t>
-  </si>
-  <si>
     <t>scada/customers/zero_corp/Planta1/PartirAB2</t>
   </si>
   <si>
@@ -212,6 +206,21 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta1/RuningAB2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/LocRemfdbkAB1</t>
+  </si>
+  <si>
+    <t>R0.BIT6</t>
+  </si>
+  <si>
+    <t>R0.BIT7</t>
+  </si>
+  <si>
+    <t>R30.BIT0</t>
+  </si>
+  <si>
+    <t>R30.BIT1</t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -683,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -712,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>2500</v>
@@ -741,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>5000</v>
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>5000</v>
@@ -787,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -796,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>2500</v>
@@ -813,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -822,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>2500</v>
@@ -839,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -848,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>1000</v>
@@ -874,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -900,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1000</v>
@@ -917,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -926,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>1000</v>
@@ -943,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -952,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>2500</v>
@@ -969,19 +978,19 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J14">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1004,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>1000</v>
@@ -1021,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1030,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>1000</v>
@@ -1047,19 +1056,19 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>53</v>
       </c>
       <c r="J17">
-        <v>1850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1082,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18">
-        <v>2050</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1099,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -1108,10 +1117,10 @@
         <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>1790</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,19 +1134,19 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J20">
-        <v>1000</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1160,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>1000</v>
@@ -1177,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1186,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J22">
         <v>1000</v>
@@ -1203,25 +1212,77 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="I23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23">
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25">
         <v>2500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B25" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCAC58A-607F-407D-B127-9518C2DB114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECA02E-F80F-4653-B32D-11A1C8755E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>enabled</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>R30.BIT1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/LocRemfdbkAB2</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J25">
         <v>2500</v>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECA02E-F80F-4653-B32D-11A1C8755E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BBDFB8-6EC6-4E53-9345-3A0CAE698D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>enabled</t>
   </si>
@@ -61,33 +61,6 @@
     <t>WRITE</t>
   </si>
   <si>
-    <t>10.150.14.21</t>
-  </si>
-  <si>
-    <t>B3:0/0</t>
-  </si>
-  <si>
-    <t>B3:0/2</t>
-  </si>
-  <si>
-    <t>Micrologix</t>
-  </si>
-  <si>
-    <t>B3:0/1</t>
-  </si>
-  <si>
-    <t>N7:0</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>COMPACTLOGIX</t>
-  </si>
-  <si>
-    <t>S7-1200</t>
-  </si>
-  <si>
     <t>10.150.14.110</t>
   </si>
   <si>
@@ -109,36 +82,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>scada/customers/zero_corp/Planta2/Partir</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/Parar</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/Sts</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/PV</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/trend/Planta2/PV</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/SPTime</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/SPV1</t>
-  </si>
-  <si>
-    <t>N7:2</t>
-  </si>
-  <si>
-    <t>N7:1</t>
-  </si>
-  <si>
-    <t>scada/customers/zero_corp/Planta2/SPTimefdbk</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -224,6 +167,15 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta1/LocRemfdbkAB2</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/Temp</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/RuningAB1</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/trend/Planta1/RuningAB2</t>
   </si>
 </sst>
 </file>
@@ -600,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -651,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -666,27 +618,24 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>1000</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -695,42 +644,36 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>2500</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -738,28 +681,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>5000</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,25 +707,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,25 +733,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,25 +759,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J8">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,22 +785,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>1000</v>
@@ -871,25 +811,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -897,25 +837,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -923,25 +863,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J12">
-        <v>1000</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -949,25 +889,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J13">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -975,25 +915,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1001,22 +941,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1000</v>
@@ -1027,25 +967,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,25 +993,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,25 +1019,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J18">
-        <v>1850</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1123,7 +1063,7 @@
         <v>50</v>
       </c>
       <c r="J19">
-        <v>2050</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1149,144 +1089,14 @@
         <v>51</v>
       </c>
       <c r="J20">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B25" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
-      <formula1>$M$2:$M$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BBDFB8-6EC6-4E53-9345-3A0CAE698D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E909F5-297D-4238-9222-D344543C9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>enabled</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/trend/Planta1/RuningAB2</t>
+  </si>
+  <si>
+    <t>R30.BIT2</t>
+  </si>
+  <si>
+    <t>R30.BIT3</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/SimuTemp</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/SimuTempfbdk</t>
   </si>
 </sst>
 </file>
@@ -552,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="J22" sqref="I21:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -1090,12 +1102,64 @@
       </c>
       <c r="J20">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/scada_configs/zero_corp_Scada_Config.xlsx
+++ b/scada_configs/zero_corp_Scada_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\ScadaWeb\Web_V2.0\SurNex_para_Produccion Rev_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E909F5-297D-4238-9222-D344543C9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85DDE3-677C-43CF-9849-FB878C3E342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>enabled</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>scada/customers/zero_corp/Planta1/SimuTempfbdk</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>scada/customers/zero_corp/Planta1/Temp_MCU_001</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="I21:J22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,10 +1162,36 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B23" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
